--- a/RAAL/Weather_data/GHI_2024-02-07.xlsx
+++ b/RAAL/Weather_data/GHI_2024-02-07.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2605.6</v>
+        <v>2605.68</v>
       </c>
       <c r="H2">
-        <v>5832.25</v>
+        <v>5832.57</v>
       </c>
       <c r="I2">
-        <v>680.1900000000001</v>
+        <v>680.16</v>
       </c>
       <c r="J2">
-        <v>1197.34</v>
+        <v>1107.79</v>
       </c>
       <c r="K2">
-        <v>295.17</v>
+        <v>139.92</v>
       </c>
       <c r="L2">
-        <v>1121.35</v>
+        <v>1055.7</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +878,13 @@
         <v>3.61</v>
       </c>
       <c r="K9">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,19 +913,19 @@
         <v>80.52</v>
       </c>
       <c r="I10">
-        <v>367.28</v>
+        <v>367.31</v>
       </c>
       <c r="J10">
         <v>42.24</v>
       </c>
       <c r="K10">
-        <v>59.13</v>
+        <v>39.38</v>
       </c>
       <c r="L10">
-        <v>106.27</v>
+        <v>1.79</v>
       </c>
       <c r="M10">
-        <v>46.18</v>
+        <v>39.06</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>215.16</v>
+        <v>215.17</v>
       </c>
       <c r="I11">
-        <v>601.3099999999999</v>
+        <v>601.34</v>
       </c>
       <c r="J11">
         <v>67.75</v>
       </c>
       <c r="K11">
-        <v>114.45</v>
+        <v>109.06</v>
       </c>
       <c r="L11">
-        <v>43.55</v>
+        <v>30.34</v>
       </c>
       <c r="M11">
-        <v>102.86</v>
+        <v>100.82</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +995,19 @@
         <v>332.51</v>
       </c>
       <c r="I12">
-        <v>708.42</v>
+        <v>708.4400000000001</v>
       </c>
       <c r="J12">
         <v>82.02</v>
       </c>
       <c r="K12">
-        <v>174.94</v>
+        <v>171.16</v>
       </c>
       <c r="L12">
-        <v>54.46</v>
+        <v>48.55</v>
       </c>
       <c r="M12">
-        <v>155.43</v>
+        <v>153.76</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>411.57</v>
+        <v>411.58</v>
       </c>
       <c r="I13">
-        <v>760.64</v>
+        <v>760.6799999999999</v>
       </c>
       <c r="J13">
         <v>89.8</v>
       </c>
       <c r="K13">
-        <v>194.65</v>
+        <v>191.98</v>
       </c>
       <c r="L13">
-        <v>30.34</v>
+        <v>28.07</v>
       </c>
       <c r="M13">
-        <v>181.58</v>
+        <v>179.89</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>442.24</v>
+        <v>442.25</v>
       </c>
       <c r="I14">
-        <v>778.1799999999999</v>
+        <v>778.22</v>
       </c>
       <c r="J14">
-        <v>92.54000000000001</v>
+        <v>92.53</v>
       </c>
       <c r="K14">
-        <v>192.97</v>
+        <v>191.25</v>
       </c>
       <c r="L14">
-        <v>19.91</v>
+        <v>18.84</v>
       </c>
       <c r="M14">
-        <v>183.85</v>
+        <v>182.62</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>420.95</v>
+        <v>420.97</v>
       </c>
       <c r="I15">
-        <v>766.29</v>
+        <v>766.33</v>
       </c>
       <c r="J15">
-        <v>90.63</v>
+        <v>90.62</v>
       </c>
       <c r="K15">
-        <v>171.77</v>
+        <v>170.04</v>
       </c>
       <c r="L15">
-        <v>11.73</v>
+        <v>10.79</v>
       </c>
       <c r="M15">
-        <v>166.58</v>
+        <v>165.27</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>350.16</v>
+        <v>350.17</v>
       </c>
       <c r="I16">
-        <v>721.37</v>
+        <v>721.42</v>
       </c>
       <c r="J16">
-        <v>83.81</v>
+        <v>83.8</v>
       </c>
       <c r="K16">
-        <v>134.29</v>
+        <v>123.41</v>
       </c>
       <c r="L16">
-        <v>3.18</v>
+        <v>1.54</v>
       </c>
       <c r="M16">
-        <v>133.02</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>238.69</v>
+        <v>238.7</v>
       </c>
       <c r="I17">
-        <v>627.1900000000001</v>
+        <v>627.24</v>
       </c>
       <c r="J17">
         <v>70.91</v>
       </c>
       <c r="K17">
-        <v>92.77</v>
+        <v>69.23</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>92.77</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>104.62</v>
       </c>
       <c r="I18">
-        <v>428.04</v>
+        <v>428.06</v>
       </c>
       <c r="J18">
-        <v>48.23</v>
+        <v>48.22</v>
       </c>
       <c r="K18">
-        <v>55.36</v>
+        <v>37.52</v>
       </c>
       <c r="L18">
-        <v>25.73</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>52.07</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1288,13 +1288,13 @@
         <v>8.67</v>
       </c>
       <c r="K19">
-        <v>5.2</v>
+        <v>3.44</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.2</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="20" spans="1:13">
